--- a/console/Elastic-Compute/Virtual-Machine/components/pip/pipListSelect.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/components/pip/pipListSelect.xlsx
@@ -97,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Full availability zone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>no_pip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No current available EIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>loading</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,7 +147,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Uploading…</t>
+    <t>No available EIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Azs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +521,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -573,29 +573,29 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
